--- a/Projeto1/docs/Graficos.xlsx
+++ b/Projeto1/docs/Graficos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Desktop\Tecnico\3Ano\IA\IA_2020_2021\Projeto1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDF05EB-D918-4FB0-80C8-996212BF589E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0E6FFD-F4C5-40E9-859E-1F364EF025C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A9B85DB-8D52-4372-AA54-199ADD0B4BCD}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
                   <c:v>Astar (25,220628738)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Breath (6,945842266)</c:v>
+                  <c:v>Breadth (6,945842266)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Iterative (0,6153569)</c:v>
@@ -1204,7 +1204,7 @@
                   <c:v>Astar (25,220628738)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Breath (6,945842266)</c:v>
+                  <c:v>Breadth (6,945842266)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Iterative (0,6153569)</c:v>
@@ -1327,7 +1327,7 @@
                   <c:v>Astar (25,220628738)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Breath (6,945842266)</c:v>
+                  <c:v>Breadth (6,945842266)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Iterative (0,6153569)</c:v>
@@ -4543,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB7A5D-CA2D-4D9A-ACC1-2308F74F71D1}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4633,8 +4633,8 @@
         <v>Astar (25,220628738)</v>
       </c>
       <c r="C27" t="str">
-        <f>"Breath ("&amp; C31 &amp;")"</f>
-        <v>Breath (6,945842266)</v>
+        <f>"Breadth ("&amp; C31 &amp;")"</f>
+        <v>Breadth (6,945842266)</v>
       </c>
       <c r="D27" t="str">
         <f>"Iterative ("&amp;D31&amp;")"</f>
